--- a/ServiceApp/src/main/java/Resources/testdata.xlsx
+++ b/ServiceApp/src/main/java/Resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ServiceApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B29D031-C8B1-499D-B826-38E30AD7CA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49161598-4C80-41BE-B4AF-F70247B2583A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="805" firstSheet="3" activeTab="4" xr2:uid="{05DE6A2F-99EF-4064-AF5C-344DCF86404E}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" tabRatio="805" firstSheet="4" activeTab="7" xr2:uid="{05DE6A2F-99EF-4064-AF5C-344DCF86404E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t xml:space="preserve">Expected Message </t>
   </si>
@@ -89,12 +89,6 @@
     <t>Expected Toast Alert</t>
   </si>
   <si>
-    <t>SMS not sent</t>
-  </si>
-  <si>
-    <t>Fields cannot be empty</t>
-  </si>
-  <si>
     <t>The Email/Username field is required.The Password field is required.</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>Event Removed</t>
   </si>
   <si>
-    <t>ExpectedToastMessage</t>
-  </si>
-  <si>
     <t>This value should be a valid email.</t>
   </si>
   <si>
@@ -236,7 +227,40 @@
     <t>Quantity Alerts</t>
   </si>
   <si>
-    <t>Client: Keerthi was updated</t>
+    <t>Send SMS</t>
+  </si>
+  <si>
+    <t>Send Email</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>ExpectedHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmd /c C:\\Wget\\wget.exe -P C:\\abc --no-check-certificate </t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>window.scrollBy(0,350)</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>uploadFile</t>
+  </si>
+  <si>
+    <t>C:\\Users\\admin\\Desktop\\ServiceApp\\ScreengRepair.exe</t>
+  </si>
+  <si>
+    <t>Simple Selfie Issue To be rectified</t>
+  </si>
+  <si>
+    <t>message</t>
   </si>
 </sst>
 </file>
@@ -631,10 +655,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -651,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,7 +691,7 @@
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -697,18 +721,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -735,22 +759,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -758,22 +782,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -781,7 +805,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -815,16 +839,16 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -832,28 +856,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -879,43 +903,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -928,32 +952,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23989E0F-065A-40D7-AFC7-E05F4696C071}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.36328125" customWidth="1"/>
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="52.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +994,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE6C56E-8165-44E8-AEFA-679D67231B3A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,28 +1005,35 @@
     <col min="1" max="1" width="26.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.90625" customWidth="1"/>
     <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2BF4CF-EDA3-4BFC-ACF2-C8540FE09C1D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,9 +1054,11 @@
     <col min="1" max="1" width="58.90625" customWidth="1"/>
     <col min="2" max="2" width="46.7265625" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1026,10 +1066,16 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1037,17 +1083,23 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1060,23 +1112,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE99720-B557-4E80-B26D-F9EFD6225FC3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1086,25 +1147,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32094610-F514-421A-8F5A-807FE57EF69B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
